--- a/E-Mail_senden_Performer/Data/Config.xlsx
+++ b/E-Mail_senden_Performer/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timotheus.vrettos\develop\develop_RPA\uipath-rpa_lob\E-Mail_senden_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08441764-57A3-48C5-AF1C-9798ABCA438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4333D7A9-DCA3-4F81-804C-5C0439ADF436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="3960" windowWidth="21255" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28770" yWindow="8460" windowWidth="21255" windowHeight="10815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Utility path for saving temporary files. If left empty or not rooted a default folder is set . Will be deleted at end.</t>
   </si>
   <si>
-    <t>Prod/rpa001_LoB-Bescheide</t>
-  </si>
-  <si>
     <t>rpa001_LoB_Bescheide_SendEmails</t>
   </si>
   <si>
@@ -243,12 +240,6 @@
     <t>rpa001_EmailBodyHtmlPath</t>
   </si>
   <si>
-    <t>EmailSubjetctLine</t>
-  </si>
-  <si>
-    <t>rpa001_EmailSubjetctLine</t>
-  </si>
-  <si>
     <t>Groupmailbox</t>
   </si>
   <si>
@@ -274,13 +265,25 @@
   </si>
   <si>
     <t>rpa001_LoB_E-MailQueue</t>
+  </si>
+  <si>
+    <t>rpa001_ITM Robot Account</t>
+  </si>
+  <si>
+    <t>Test/ITM/rpa001_LOB</t>
+  </si>
+  <si>
+    <t>rpa001_EmailSubjectLine</t>
+  </si>
+  <si>
+    <t>EmailSubjectLine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -304,12 +307,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF464E55"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -343,9 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -662,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -712,8 +706,8 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>82</v>
+      <c r="B2" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -724,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -738,14 +732,21 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3004,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3054,58 +3055,58 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
